--- a/REGULAR/OJT/PALADAN, VICENTE.xlsx
+++ b/REGULAR/OJT/PALADAN, VICENTE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EEEABB-F10E-40CE-B884-317398965CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="244">
   <si>
     <t>PERIOD</t>
   </si>
@@ -771,7 +770,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1455,7 +1454,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1472,26 +1471,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K648" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K648" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K649" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K649"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1798,34 +1797,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K648"/>
+  <dimension ref="A2:K649"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2160" topLeftCell="A595" activePane="bottomLeft"/>
-      <selection activeCell="E11" sqref="E11"/>
-      <selection pane="bottomLeft" activeCell="B600" sqref="B600"/>
+      <selection activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="I601" sqref="I601"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1846,7 +1845,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1864,7 +1863,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1886,7 +1885,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1894,7 +1893,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1907,7 +1906,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -1924,7 +1923,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1968,7 +1967,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>151.62500000000006</v>
+        <v>152.87500000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1978,12 +1977,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>103.625</v>
+        <v>102.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>80</v>
       </c>
@@ -1998,7 +1997,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>81</v>
       </c>
@@ -2015,7 +2014,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>34835</v>
       </c>
@@ -2035,7 +2034,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>34851</v>
       </c>
@@ -2055,7 +2054,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>34881</v>
@@ -2076,7 +2075,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A19" si="0">EDATE(A14,1)</f>
         <v>34912</v>
@@ -2097,7 +2096,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -2118,7 +2117,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -2139,7 +2138,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -2160,7 +2159,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -2181,7 +2180,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>83</v>
       </c>
@@ -2199,7 +2198,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f>EDATE(A19,1)</f>
         <v>35065</v>
@@ -2220,7 +2219,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f>EDATE(A21,1)</f>
         <v>35096</v>
@@ -2241,7 +2240,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" ref="A23:A31" si="1">EDATE(A22,1)</f>
         <v>35125</v>
@@ -2262,7 +2261,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -2283,7 +2282,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -2304,7 +2303,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -2325,7 +2324,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -2346,7 +2345,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>35278</v>
@@ -2367,7 +2366,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>35309</v>
@@ -2388,7 +2387,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="1"/>
         <v>35339</v>
@@ -2409,7 +2408,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -2430,7 +2429,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f>EDATE(A31,1)</f>
         <v>35400</v>
@@ -2455,7 +2454,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>84</v>
       </c>
@@ -2473,7 +2472,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f>EDATE(A32,1)</f>
         <v>35431</v>
@@ -2494,7 +2493,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f>EDATE(A34,1)</f>
         <v>35462</v>
@@ -2515,7 +2514,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" ref="A36:A45" si="2">EDATE(A35,1)</f>
         <v>35490</v>
@@ -2536,7 +2535,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -2557,7 +2556,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -2578,7 +2577,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="2"/>
         <v>35582</v>
@@ -2599,7 +2598,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="2"/>
         <v>35612</v>
@@ -2620,7 +2619,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -2641,7 +2640,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -2662,7 +2661,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="2"/>
         <v>35704</v>
@@ -2683,7 +2682,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="2"/>
         <v>35735</v>
@@ -2704,7 +2703,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -2729,7 +2728,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>85</v>
       </c>
@@ -2747,7 +2746,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f>EDATE(A45,1)</f>
         <v>35796</v>
@@ -2768,7 +2767,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f>EDATE(A47,1)</f>
         <v>35827</v>
@@ -2789,7 +2788,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" ref="A49:A57" si="3">EDATE(A48,1)</f>
         <v>35855</v>
@@ -2810,7 +2809,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="3"/>
         <v>35886</v>
@@ -2831,7 +2830,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="53" t="s">
         <v>86</v>
       </c>
@@ -2851,7 +2850,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>88</v>
       </c>
@@ -2871,7 +2870,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>35947</v>
       </c>
@@ -2891,7 +2890,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="3"/>
         <v>35977</v>
@@ -2912,7 +2911,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="3"/>
         <v>36008</v>
@@ -2933,7 +2932,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f t="shared" si="3"/>
         <v>36039</v>
@@ -2954,7 +2953,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -2975,7 +2974,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f>EDATE(A57,1)</f>
         <v>36100</v>
@@ -2996,7 +2995,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f>EDATE(A58,1)</f>
         <v>36130</v>
@@ -3021,7 +3020,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>89</v>
       </c>
@@ -3039,7 +3038,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f>EDATE(A59,1)</f>
         <v>36161</v>
@@ -3066,7 +3065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f>EDATE(A61,1)</f>
         <v>36192</v>
@@ -3087,7 +3086,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" ref="A63:A71" si="4">EDATE(A62,1)</f>
         <v>36220</v>
@@ -3108,7 +3107,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="4"/>
         <v>36251</v>
@@ -3129,7 +3128,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" si="4"/>
         <v>36281</v>
@@ -3150,7 +3149,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="4"/>
         <v>36312</v>
@@ -3171,7 +3170,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="4"/>
         <v>36342</v>
@@ -3192,7 +3191,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -3213,7 +3212,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="4"/>
         <v>36404</v>
@@ -3234,7 +3233,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" si="4"/>
         <v>36434</v>
@@ -3255,7 +3254,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -3276,7 +3275,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f>EDATE(A71,1)</f>
         <v>36495</v>
@@ -3301,7 +3300,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>93</v>
       </c>
@@ -3319,7 +3318,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f>EDATE(A72,1)</f>
         <v>36526</v>
@@ -3340,7 +3339,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f>EDATE(A74,1)</f>
         <v>36557</v>
@@ -3361,7 +3360,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" ref="A76:A85" si="5">EDATE(A75,1)</f>
         <v>36586</v>
@@ -3382,7 +3381,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -3403,7 +3402,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="5"/>
         <v>36647</v>
@@ -3424,7 +3423,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="5"/>
         <v>36678</v>
@@ -3445,7 +3444,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -3466,7 +3465,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -3487,7 +3486,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -3508,7 +3507,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -3529,7 +3528,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -3550,7 +3549,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="5"/>
         <v>36861</v>
@@ -3575,7 +3574,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>94</v>
       </c>
@@ -3593,7 +3592,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f>EDATE(A85,1)</f>
         <v>36892</v>
@@ -3614,7 +3613,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f>EDATE(A87,1)</f>
         <v>36923</v>
@@ -3635,7 +3634,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f t="shared" ref="A89:A98" si="6">EDATE(A88,1)</f>
         <v>36951</v>
@@ -3662,7 +3661,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="6"/>
         <v>36982</v>
@@ -3683,7 +3682,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -3704,7 +3703,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -3725,7 +3724,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -3746,7 +3745,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -3767,7 +3766,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -3788,7 +3787,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -3809,7 +3808,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="6"/>
         <v>37196</v>
@@ -3830,7 +3829,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="6"/>
         <v>37226</v>
@@ -3855,7 +3854,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
         <v>97</v>
       </c>
@@ -3873,7 +3872,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>37257</v>
@@ -3894,7 +3893,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f>EDATE(A100,1)</f>
         <v>37288</v>
@@ -3915,7 +3914,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f t="shared" ref="A102:A111" si="7">EDATE(A101,1)</f>
         <v>37316</v>
@@ -3936,7 +3935,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -3957,7 +3956,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -3984,7 +3983,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" si="7"/>
         <v>37408</v>
@@ -4005,7 +4004,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -4026,7 +4025,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -4047,7 +4046,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -4068,7 +4067,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -4089,7 +4088,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -4110,7 +4109,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -4135,7 +4134,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
         <v>100</v>
       </c>
@@ -4153,7 +4152,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f>EDATE(A111,1)</f>
         <v>37622</v>
@@ -4174,7 +4173,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f>EDATE(A113,1)</f>
         <v>37653</v>
@@ -4195,7 +4194,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f t="shared" ref="A115:A124" si="8">EDATE(A114,1)</f>
         <v>37681</v>
@@ -4222,7 +4221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f t="shared" si="8"/>
         <v>37712</v>
@@ -4243,7 +4242,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f t="shared" si="8"/>
         <v>37742</v>
@@ -4270,7 +4269,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f t="shared" si="8"/>
         <v>37773</v>
@@ -4291,7 +4290,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f t="shared" si="8"/>
         <v>37803</v>
@@ -4312,7 +4311,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f t="shared" si="8"/>
         <v>37834</v>
@@ -4333,7 +4332,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f t="shared" si="8"/>
         <v>37865</v>
@@ -4354,7 +4353,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f t="shared" si="8"/>
         <v>37895</v>
@@ -4375,7 +4374,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f t="shared" si="8"/>
         <v>37926</v>
@@ -4396,7 +4395,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f t="shared" si="8"/>
         <v>37956</v>
@@ -4417,7 +4416,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>103</v>
       </c>
@@ -4435,7 +4434,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f>EDATE(A124,1)</f>
         <v>37987</v>
@@ -4456,7 +4455,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <f>EDATE(A126,1)</f>
         <v>38018</v>
@@ -4477,7 +4476,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f t="shared" ref="A128:A139" si="9">EDATE(A127,1)</f>
         <v>38047</v>
@@ -4504,7 +4503,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" si="9"/>
         <v>38078</v>
@@ -4525,7 +4524,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" si="9"/>
         <v>38108</v>
@@ -4552,7 +4551,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>46</v>
@@ -4569,7 +4568,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f>EDATE(A130,1)</f>
         <v>38139</v>
@@ -4596,7 +4595,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f t="shared" si="9"/>
         <v>38169</v>
@@ -4623,7 +4622,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f t="shared" si="9"/>
         <v>38200</v>
@@ -4644,7 +4643,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f t="shared" si="9"/>
         <v>38231</v>
@@ -4671,7 +4670,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f t="shared" si="9"/>
         <v>38261</v>
@@ -4698,7 +4697,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>109</v>
@@ -4715,7 +4714,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f>EDATE(A136,1)</f>
         <v>38292</v>
@@ -4736,7 +4735,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f t="shared" si="9"/>
         <v>38322</v>
@@ -4757,7 +4756,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>112</v>
       </c>
@@ -4775,7 +4774,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f>EDATE(A139,1)</f>
         <v>38353</v>
@@ -4796,7 +4795,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EDATE(A141,1)</f>
         <v>38384</v>
@@ -4821,7 +4820,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>44</v>
@@ -4838,7 +4837,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f>EDATE(A142,1)</f>
         <v>38412</v>
@@ -4859,7 +4858,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f t="shared" ref="A145:A153" si="10">EDATE(A144,1)</f>
         <v>38443</v>
@@ -4880,7 +4879,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <f t="shared" si="10"/>
         <v>38473</v>
@@ -4901,7 +4900,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f t="shared" si="10"/>
         <v>38504</v>
@@ -4922,7 +4921,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <f t="shared" si="10"/>
         <v>38534</v>
@@ -4943,7 +4942,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <f t="shared" si="10"/>
         <v>38565</v>
@@ -4964,7 +4963,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <f t="shared" si="10"/>
         <v>38596</v>
@@ -4991,7 +4990,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <f t="shared" si="10"/>
         <v>38626</v>
@@ -5012,7 +5011,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f t="shared" si="10"/>
         <v>38657</v>
@@ -5033,7 +5032,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f t="shared" si="10"/>
         <v>38687</v>
@@ -5060,7 +5059,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>69</v>
@@ -5080,7 +5079,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="48" t="s">
         <v>115</v>
       </c>
@@ -5098,7 +5097,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <f>EDATE(A153,1)</f>
         <v>38718</v>
@@ -5119,7 +5118,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f>EDATE(A156,1)</f>
         <v>38749</v>
@@ -5140,7 +5139,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <f t="shared" ref="A158:A170" si="11">EDATE(A157,1)</f>
         <v>38777</v>
@@ -5161,7 +5160,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f t="shared" si="11"/>
         <v>38808</v>
@@ -5186,7 +5185,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>46</v>
@@ -5203,7 +5202,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>44</v>
@@ -5220,7 +5219,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>116</v>
@@ -5237,7 +5236,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <f>EDATE(A159,1)</f>
         <v>38838</v>
@@ -5258,7 +5257,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f t="shared" si="11"/>
         <v>38869</v>
@@ -5279,7 +5278,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <f t="shared" si="11"/>
         <v>38899</v>
@@ -5300,7 +5299,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <f t="shared" si="11"/>
         <v>38930</v>
@@ -5321,7 +5320,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <f t="shared" si="11"/>
         <v>38961</v>
@@ -5342,7 +5341,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f t="shared" si="11"/>
         <v>38991</v>
@@ -5363,7 +5362,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f t="shared" si="11"/>
         <v>39022</v>
@@ -5384,7 +5383,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <f t="shared" si="11"/>
         <v>39052</v>
@@ -5409,7 +5408,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="48" t="s">
         <v>120</v>
       </c>
@@ -5427,7 +5426,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <f>EDATE(A170,1)</f>
         <v>39083</v>
@@ -5448,7 +5447,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f>EDATE(A172,1)</f>
         <v>39114</v>
@@ -5469,7 +5468,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <f t="shared" ref="A174:A182" si="12">EDATE(A173,1)</f>
         <v>39142</v>
@@ -5490,7 +5489,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f t="shared" si="12"/>
         <v>39173</v>
@@ -5511,7 +5510,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <f t="shared" si="12"/>
         <v>39203</v>
@@ -5532,7 +5531,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f t="shared" si="12"/>
         <v>39234</v>
@@ -5553,7 +5552,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <f t="shared" si="12"/>
         <v>39264</v>
@@ -5574,7 +5573,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f t="shared" si="12"/>
         <v>39295</v>
@@ -5595,7 +5594,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f t="shared" si="12"/>
         <v>39326</v>
@@ -5616,7 +5615,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <f t="shared" si="12"/>
         <v>39356</v>
@@ -5637,7 +5636,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <f t="shared" si="12"/>
         <v>39387</v>
@@ -5658,7 +5657,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <f>EDATE(A182,1)</f>
         <v>39417</v>
@@ -5683,7 +5682,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="48" t="s">
         <v>122</v>
       </c>
@@ -5701,7 +5700,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <f>EDATE(A183,1)</f>
         <v>39448</v>
@@ -5722,7 +5721,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f>EDATE(A185,1)</f>
         <v>39479</v>
@@ -5743,7 +5742,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <f t="shared" ref="A187:A189" si="13">EDATE(A186,1)</f>
         <v>39508</v>
@@ -5764,7 +5763,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <f t="shared" si="13"/>
         <v>39539</v>
@@ -5791,7 +5790,7 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f t="shared" si="13"/>
         <v>39569</v>
@@ -5818,7 +5817,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>44</v>
@@ -5837,7 +5836,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>44</v>
@@ -5856,7 +5855,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>44</v>
@@ -5875,7 +5874,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>47</v>
@@ -5894,7 +5893,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <f>EDATE(A189,1)</f>
         <v>39600</v>
@@ -5919,7 +5918,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>44</v>
@@ -5938,7 +5937,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>44</v>
@@ -5957,7 +5956,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>44</v>
@@ -5974,7 +5973,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <f>EDATE(A194,1)</f>
         <v>39630</v>
@@ -6001,7 +6000,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>47</v>
@@ -6020,7 +6019,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>109</v>
@@ -6037,7 +6036,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f>EDATE(A198,1)</f>
         <v>39661</v>
@@ -6064,7 +6063,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>44</v>
@@ -6083,7 +6082,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>71</v>
@@ -6102,7 +6101,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <f>EDATE(A201,1)</f>
         <v>39692</v>
@@ -6129,7 +6128,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>44</v>
@@ -6148,7 +6147,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>44</v>
@@ -6165,7 +6164,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>71</v>
@@ -6184,7 +6183,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>44</v>
@@ -6203,7 +6202,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f>EDATE(A204,1)</f>
         <v>39722</v>
@@ -6230,7 +6229,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>92</v>
@@ -6249,7 +6248,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>116</v>
@@ -6266,7 +6265,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>71</v>
@@ -6285,7 +6284,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>47</v>
@@ -6304,7 +6303,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <f>EDATE(A209,1)</f>
         <v>39753</v>
@@ -6331,7 +6330,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>44</v>
@@ -6350,7 +6349,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>47</v>
@@ -6369,7 +6368,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>44</v>
@@ -6388,7 +6387,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f>EDATE(A214,1)</f>
         <v>39783</v>
@@ -6415,7 +6414,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>71</v>
@@ -6437,7 +6436,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>44</v>
@@ -6459,7 +6458,7 @@
         <v>45284</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>242</v>
@@ -6476,7 +6475,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="51"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="48" t="s">
         <v>138</v>
       </c>
@@ -6494,7 +6493,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f>EDATE(A218,1)</f>
         <v>39814</v>
@@ -6519,7 +6518,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>44</v>
@@ -6538,7 +6537,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>46</v>
@@ -6555,7 +6554,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>46</v>
@@ -6572,7 +6571,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>44</v>
@@ -6591,7 +6590,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>44</v>
@@ -6610,7 +6609,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f>EDATE(A223,1)</f>
         <v>39845</v>
@@ -6637,7 +6636,7 @@
         <v>44961</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>44</v>
@@ -6656,7 +6655,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>44</v>
@@ -6675,7 +6674,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>44</v>
@@ -6694,7 +6693,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>47</v>
@@ -6713,7 +6712,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>44</v>
@@ -6732,7 +6731,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <f>EDATE(A229,1)</f>
         <v>39873</v>
@@ -6759,7 +6758,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>47</v>
@@ -6778,7 +6777,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>44</v>
@@ -6797,7 +6796,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>47</v>
@@ -6816,7 +6815,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>47</v>
@@ -6835,7 +6834,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>44</v>
@@ -6854,7 +6853,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>44</v>
@@ -6873,7 +6872,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>44</v>
@@ -6892,7 +6891,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f>EDATE(A235,1)</f>
         <v>39904</v>
@@ -6919,7 +6918,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>44</v>
@@ -6936,7 +6935,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>44</v>
@@ -6955,7 +6954,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f>EDATE(A243,1)</f>
         <v>39934</v>
@@ -6982,7 +6981,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>71</v>
@@ -7001,7 +7000,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>44</v>
@@ -7020,7 +7019,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>44</v>
@@ -7039,7 +7038,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f>EDATE(A246,1)</f>
         <v>39965</v>
@@ -7066,7 +7065,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>44</v>
@@ -7085,7 +7084,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>44</v>
@@ -7104,7 +7103,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>71</v>
@@ -7123,7 +7122,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A250,1)</f>
         <v>39995</v>
@@ -7150,7 +7149,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>44</v>
@@ -7169,7 +7168,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>71</v>
@@ -7188,7 +7187,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>44</v>
@@ -7207,7 +7206,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>44</v>
@@ -7226,7 +7225,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f>EDATE(A254,1)</f>
         <v>40026</v>
@@ -7253,7 +7252,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>44</v>
@@ -7272,7 +7271,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>44</v>
@@ -7291,7 +7290,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f>EDATE(A259,1)</f>
         <v>40057</v>
@@ -7318,7 +7317,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>44</v>
@@ -7337,7 +7336,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>47</v>
@@ -7356,7 +7355,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f>EDATE(A262,1)</f>
         <v>40087</v>
@@ -7383,7 +7382,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>44</v>
@@ -7402,7 +7401,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>44</v>
@@ -7421,7 +7420,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>47</v>
@@ -7440,7 +7439,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f>EDATE(A265,1)</f>
         <v>40118</v>
@@ -7467,7 +7466,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>44</v>
@@ -7486,7 +7485,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <f t="shared" ref="A271" si="14">EDATE(A269,1)</f>
         <v>40148</v>
@@ -7513,7 +7512,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>47</v>
@@ -7535,7 +7534,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>47</v>
@@ -7557,7 +7556,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="48" t="s">
         <v>156</v>
       </c>
@@ -7575,7 +7574,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <f>EDATE(A271,1)</f>
         <v>40179</v>
@@ -7602,7 +7601,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>44</v>
@@ -7621,7 +7620,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <f>EDATE(A275,1)</f>
         <v>40210</v>
@@ -7648,7 +7647,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>44</v>
@@ -7667,7 +7666,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>44</v>
@@ -7686,7 +7685,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>44</v>
@@ -7705,7 +7704,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>46</v>
@@ -7722,7 +7721,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <f>EDATE(A277,1)</f>
         <v>40238</v>
@@ -7749,7 +7748,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>44</v>
@@ -7768,7 +7767,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>44</v>
@@ -7787,7 +7786,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>47</v>
@@ -7806,7 +7805,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <f>EDATE(A282,1)</f>
         <v>40269</v>
@@ -7835,7 +7834,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>47</v>
@@ -7854,7 +7853,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>47</v>
@@ -7873,7 +7872,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>162</v>
@@ -7892,7 +7891,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <f>EDATE(A286,1)</f>
         <v>40299</v>
@@ -7919,7 +7918,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>44</v>
@@ -7938,7 +7937,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>47</v>
@@ -7957,7 +7956,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>44</v>
@@ -7976,7 +7975,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f>EDATE(A290,1)</f>
         <v>40330</v>
@@ -8003,7 +8002,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>44</v>
@@ -8022,7 +8021,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>44</v>
@@ -8041,7 +8040,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f>EDATE(A294,1)</f>
         <v>40360</v>
@@ -8068,7 +8067,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>44</v>
@@ -8087,7 +8086,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <f>EDATE(A297,1)</f>
         <v>40391</v>
@@ -8114,7 +8113,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>44</v>
@@ -8133,7 +8132,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>47</v>
@@ -8152,7 +8151,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <f>EDATE(A299,1)</f>
         <v>40422</v>
@@ -8179,7 +8178,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>44</v>
@@ -8198,7 +8197,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>47</v>
@@ -8217,7 +8216,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <f>EDATE(A302,1)</f>
         <v>40452</v>
@@ -8244,7 +8243,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>44</v>
@@ -8263,7 +8262,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>47</v>
@@ -8282,7 +8281,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>44</v>
@@ -8301,7 +8300,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f>EDATE(A305,1)</f>
         <v>40483</v>
@@ -8328,7 +8327,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>44</v>
@@ -8347,7 +8346,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>44</v>
@@ -8366,7 +8365,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>44</v>
@@ -8385,7 +8384,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>44</v>
@@ -8404,7 +8403,7 @@
         <v>45260</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f t="shared" ref="A314" si="15">EDATE(A309,1)</f>
         <v>40513</v>
@@ -8431,7 +8430,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>44</v>
@@ -8453,7 +8452,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>44</v>
@@ -8475,7 +8474,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="48" t="s">
         <v>175</v>
       </c>
@@ -8493,7 +8492,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <f>EDATE(A314,1)</f>
         <v>40544</v>
@@ -8520,7 +8519,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>44</v>
@@ -8539,7 +8538,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>71</v>
@@ -8558,7 +8557,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <f>EDATE(A318,1)</f>
         <v>40575</v>
@@ -8585,7 +8584,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>44</v>
@@ -8604,7 +8603,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>47</v>
@@ -8623,7 +8622,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>46</v>
@@ -8640,7 +8639,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>44</v>
@@ -8659,7 +8658,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <f>EDATE(A321,1)</f>
         <v>40603</v>
@@ -8686,7 +8685,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>92</v>
@@ -8705,7 +8704,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>44</v>
@@ -8724,7 +8723,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>44</v>
@@ -8743,7 +8742,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>46</v>
@@ -8760,7 +8759,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>46</v>
@@ -8777,7 +8776,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>52</v>
@@ -8794,7 +8793,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="51"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <f>EDATE(A326,1)</f>
         <v>40634</v>
@@ -8821,7 +8820,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>44</v>
@@ -8840,7 +8839,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>99</v>
@@ -8859,7 +8858,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>44</v>
@@ -8878,7 +8877,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <f>EDATE(A333,1)</f>
         <v>40664</v>
@@ -8905,7 +8904,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>47</v>
@@ -8924,7 +8923,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>47</v>
@@ -8943,7 +8942,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>44</v>
@@ -8962,7 +8961,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>52</v>
@@ -8979,7 +8978,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <f>EDATE(A337,1)</f>
         <v>40695</v>
@@ -9006,7 +9005,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>44</v>
@@ -9025,7 +9024,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>47</v>
@@ -9044,7 +9043,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>44</v>
@@ -9063,7 +9062,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f>EDATE(A342,1)</f>
         <v>40725</v>
@@ -9090,7 +9089,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>44</v>
@@ -9112,7 +9111,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>52</v>
@@ -9132,7 +9131,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <f>EDATE(A346,1)</f>
         <v>40756</v>
@@ -9159,7 +9158,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>44</v>
@@ -9178,7 +9177,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>44</v>
@@ -9197,7 +9196,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>44</v>
@@ -9216,7 +9215,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>44</v>
@@ -9235,7 +9234,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <f>EDATE(A349,1)</f>
         <v>40787</v>
@@ -9262,7 +9261,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>47</v>
@@ -9281,7 +9280,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23"/>
       <c r="B356" s="20" t="s">
         <v>44</v>
@@ -9300,7 +9299,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>47</v>
@@ -9319,7 +9318,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>188</v>
@@ -9336,7 +9335,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <f>EDATE(A354,1)</f>
         <v>40817</v>
@@ -9363,7 +9362,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>44</v>
@@ -9382,7 +9381,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
         <v>47</v>
@@ -9401,7 +9400,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>188</v>
@@ -9418,7 +9417,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <f>EDATE(A359,1)</f>
         <v>40848</v>
@@ -9445,7 +9444,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>44</v>
@@ -9464,7 +9463,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>44</v>
@@ -9483,7 +9482,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>52</v>
@@ -9500,7 +9499,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="51"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <f t="shared" ref="A367" si="16">EDATE(A363,1)</f>
         <v>40878</v>
@@ -9527,7 +9526,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>44</v>
@@ -9549,7 +9548,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>44</v>
@@ -9571,7 +9570,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>92</v>
@@ -9591,7 +9590,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>52</v>
@@ -9611,7 +9610,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="48" t="s">
         <v>191</v>
       </c>
@@ -9629,7 +9628,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <f>EDATE(A367,1)</f>
         <v>40909</v>
@@ -9654,7 +9653,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>44</v>
@@ -9673,7 +9672,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>46</v>
@@ -9690,7 +9689,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>44</v>
@@ -9707,7 +9706,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>55</v>
@@ -9724,7 +9723,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23">
         <f>EDATE(A373,1)</f>
         <v>40940</v>
@@ -9751,7 +9750,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23"/>
       <c r="B379" s="20" t="s">
         <v>44</v>
@@ -9770,7 +9769,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>47</v>
@@ -9787,7 +9786,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>58</v>
@@ -9804,7 +9803,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <f>EDATE(A378,1)</f>
         <v>40969</v>
@@ -9831,7 +9830,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>44</v>
@@ -9850,7 +9849,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>47</v>
@@ -9869,7 +9868,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>52</v>
@@ -9886,7 +9885,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <f>EDATE(A382,1)</f>
         <v>41000</v>
@@ -9913,7 +9912,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>44</v>
@@ -9932,7 +9931,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>44</v>
@@ -9951,7 +9950,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <f>EDATE(A386,1)</f>
         <v>41030</v>
@@ -9975,7 +9974,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>99</v>
@@ -9994,7 +9993,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
         <v>47</v>
@@ -10013,7 +10012,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>44</v>
@@ -10032,7 +10031,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>47</v>
@@ -10051,7 +10050,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <f>EDATE(A389,1)</f>
         <v>41061</v>
@@ -10078,7 +10077,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>44</v>
@@ -10097,7 +10096,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>44</v>
@@ -10116,7 +10115,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>200</v>
@@ -10135,7 +10134,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <f>EDATE(A394,1)</f>
         <v>41091</v>
@@ -10162,7 +10161,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>199</v>
@@ -10183,7 +10182,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>200</v>
@@ -10202,7 +10201,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>45</v>
@@ -10221,7 +10220,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>45</v>
@@ -10240,7 +10239,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>200</v>
@@ -10259,7 +10258,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>200</v>
@@ -10278,7 +10277,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <f>EDATE(A398,1)</f>
         <v>41122</v>
@@ -10307,7 +10306,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>45</v>
@@ -10326,7 +10325,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>65</v>
@@ -10345,7 +10344,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <f>EDATE(A405,1)</f>
         <v>41153</v>
@@ -10372,7 +10371,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>201</v>
@@ -10393,7 +10392,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>44</v>
@@ -10412,7 +10411,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>200</v>
@@ -10431,7 +10430,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>45</v>
@@ -10450,7 +10449,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>200</v>
@@ -10469,7 +10468,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <f>EDATE(A408,1)</f>
         <v>41183</v>
@@ -10496,7 +10495,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>200</v>
@@ -10515,7 +10514,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>45</v>
@@ -10534,7 +10533,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>55</v>
@@ -10551,7 +10550,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <f t="shared" ref="A418" si="17">EDATE(A414,1)</f>
         <v>41214</v>
@@ -10578,7 +10577,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>200</v>
@@ -10597,7 +10596,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>45</v>
@@ -10616,7 +10615,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>200</v>
@@ -10635,7 +10634,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>45</v>
@@ -10654,7 +10653,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>211</v>
@@ -10671,7 +10670,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="51"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <f>EDATE(A418,1)</f>
         <v>41244</v>
@@ -10700,7 +10699,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>200</v>
@@ -10722,7 +10721,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>213</v>
@@ -10742,7 +10741,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="48" t="s">
         <v>214</v>
       </c>
@@ -10760,7 +10759,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <f>EDATE(A424,1)</f>
         <v>41275</v>
@@ -10789,7 +10788,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>46</v>
@@ -10806,7 +10805,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
         <v>199</v>
@@ -10827,7 +10826,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>66</v>
@@ -10844,7 +10843,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23"/>
       <c r="B432" s="20" t="s">
         <v>46</v>
@@ -10861,7 +10860,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>46</v>
@@ -10878,7 +10877,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <f>EDATE(A428,1)</f>
         <v>41306</v>
@@ -10907,7 +10906,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>200</v>
@@ -10926,7 +10925,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>66</v>
@@ -10945,7 +10944,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
         <v>200</v>
@@ -10964,7 +10963,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23"/>
       <c r="B438" s="20" t="s">
         <v>200</v>
@@ -10983,7 +10982,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <f>EDATE(A434,1)</f>
         <v>41334</v>
@@ -11010,7 +11009,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23"/>
       <c r="B440" s="20" t="s">
         <v>44</v>
@@ -11029,7 +11028,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23"/>
       <c r="B441" s="20" t="s">
         <v>199</v>
@@ -11050,7 +11049,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23">
         <f>EDATE(A439,1)</f>
         <v>41365</v>
@@ -11075,7 +11074,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>200</v>
@@ -11094,7 +11093,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23"/>
       <c r="B444" s="20" t="s">
         <v>200</v>
@@ -11113,7 +11112,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>200</v>
@@ -11132,7 +11131,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>45</v>
@@ -11151,7 +11150,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <f>EDATE(A442,1)</f>
         <v>41395</v>
@@ -11178,7 +11177,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>45</v>
@@ -11197,7 +11196,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23"/>
       <c r="B449" s="20" t="s">
         <v>200</v>
@@ -11216,7 +11215,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23"/>
       <c r="B450" s="20" t="s">
         <v>52</v>
@@ -11233,7 +11232,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <f>EDATE(A447,1)</f>
         <v>41426</v>
@@ -11260,7 +11259,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>199</v>
@@ -11279,7 +11278,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>200</v>
@@ -11298,7 +11297,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23"/>
       <c r="B454" s="20" t="s">
         <v>45</v>
@@ -11317,7 +11316,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23">
         <f>EDATE(A451,1)</f>
         <v>41456</v>
@@ -11344,7 +11343,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>200</v>
@@ -11363,7 +11362,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>200</v>
@@ -11380,7 +11379,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>200</v>
@@ -11399,7 +11398,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23"/>
       <c r="B459" s="20" t="s">
         <v>200</v>
@@ -11418,7 +11417,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>52</v>
@@ -11435,7 +11434,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23">
         <f>EDATE(A455,1)</f>
         <v>41487</v>
@@ -11464,7 +11463,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23"/>
       <c r="B462" s="20" t="s">
         <v>225</v>
@@ -11481,7 +11480,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <f>EDATE(A461,1)</f>
         <v>41518</v>
@@ -11506,7 +11505,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23">
         <f t="shared" ref="A464:A466" si="18">EDATE(A463,1)</f>
         <v>41548</v>
@@ -11531,7 +11530,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23">
         <f t="shared" si="18"/>
         <v>41579</v>
@@ -11556,7 +11555,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f t="shared" si="18"/>
         <v>41609</v>
@@ -11581,7 +11580,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="48" t="s">
         <v>231</v>
       </c>
@@ -11599,7 +11598,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23">
         <f>EDATE(A466,1)</f>
         <v>41640</v>
@@ -11624,7 +11623,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <f>EDATE(A468,1)</f>
         <v>41671</v>
@@ -11649,7 +11648,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <f t="shared" ref="A470:A479" si="19">EDATE(A469,1)</f>
         <v>41699</v>
@@ -11676,7 +11675,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <f t="shared" si="19"/>
         <v>41730</v>
@@ -11697,7 +11696,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <f t="shared" si="19"/>
         <v>41760</v>
@@ -11724,7 +11723,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <f t="shared" si="19"/>
         <v>41791</v>
@@ -11747,7 +11746,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23">
         <f t="shared" si="19"/>
         <v>41821</v>
@@ -11768,7 +11767,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23">
         <f t="shared" si="19"/>
         <v>41852</v>
@@ -11789,7 +11788,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23">
         <f t="shared" si="19"/>
         <v>41883</v>
@@ -11810,7 +11809,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23">
         <f t="shared" si="19"/>
         <v>41913</v>
@@ -11831,7 +11830,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23">
         <f t="shared" si="19"/>
         <v>41944</v>
@@ -11852,7 +11851,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <f t="shared" si="19"/>
         <v>41974</v>
@@ -11879,7 +11878,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="48" t="s">
         <v>236</v>
       </c>
@@ -11897,7 +11896,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23">
         <f>EDATE(A479,1)</f>
         <v>42005</v>
@@ -11918,7 +11917,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23">
         <f>EDATE(A481,1)</f>
         <v>42036</v>
@@ -11939,7 +11938,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23">
         <f t="shared" ref="A483:A492" si="20">EDATE(A482,1)</f>
         <v>42064</v>
@@ -11966,7 +11965,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <f t="shared" si="20"/>
         <v>42095</v>
@@ -11987,7 +11986,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <f t="shared" si="20"/>
         <v>42125</v>
@@ -12008,7 +12007,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23">
         <f t="shared" si="20"/>
         <v>42156</v>
@@ -12029,7 +12028,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23">
         <f t="shared" si="20"/>
         <v>42186</v>
@@ -12050,7 +12049,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23">
         <f t="shared" si="20"/>
         <v>42217</v>
@@ -12077,7 +12076,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <f t="shared" si="20"/>
         <v>42248</v>
@@ -12098,7 +12097,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <f t="shared" si="20"/>
         <v>42278</v>
@@ -12119,7 +12118,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23">
         <f t="shared" si="20"/>
         <v>42309</v>
@@ -12140,7 +12139,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23">
         <f t="shared" si="20"/>
         <v>42339</v>
@@ -12165,7 +12164,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="48" t="s">
         <v>238</v>
       </c>
@@ -12183,7 +12182,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23">
         <f>EDATE(A492,1)</f>
         <v>42370</v>
@@ -12204,7 +12203,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23">
         <f>EDATE(A494,1)</f>
         <v>42401</v>
@@ -12225,7 +12224,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23">
         <f t="shared" ref="A496:A505" si="21">EDATE(A495,1)</f>
         <v>42430</v>
@@ -12246,7 +12245,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23">
         <f t="shared" si="21"/>
         <v>42461</v>
@@ -12267,7 +12266,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23">
         <f t="shared" si="21"/>
         <v>42491</v>
@@ -12288,7 +12287,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23">
         <f t="shared" si="21"/>
         <v>42522</v>
@@ -12309,7 +12308,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23">
         <f t="shared" si="21"/>
         <v>42552</v>
@@ -12330,7 +12329,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23">
         <f t="shared" si="21"/>
         <v>42583</v>
@@ -12351,7 +12350,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23">
         <f t="shared" si="21"/>
         <v>42614</v>
@@ -12372,7 +12371,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23">
         <f t="shared" si="21"/>
         <v>42644</v>
@@ -12393,7 +12392,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23">
         <f t="shared" si="21"/>
         <v>42675</v>
@@ -12414,7 +12413,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="23">
         <f t="shared" si="21"/>
         <v>42705</v>
@@ -12439,7 +12438,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="48" t="s">
         <v>239</v>
       </c>
@@ -12457,7 +12456,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23">
         <f>EDATE(A505,1)</f>
         <v>42736</v>
@@ -12478,7 +12477,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23">
         <f>EDATE(A507,1)</f>
         <v>42767</v>
@@ -12499,7 +12498,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="23">
         <f t="shared" ref="A509:A518" si="22">EDATE(A508,1)</f>
         <v>42795</v>
@@ -12520,7 +12519,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23">
         <f t="shared" si="22"/>
         <v>42826</v>
@@ -12541,7 +12540,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23">
         <f t="shared" si="22"/>
         <v>42856</v>
@@ -12562,7 +12561,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23">
         <f t="shared" si="22"/>
         <v>42887</v>
@@ -12583,7 +12582,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="23">
         <f t="shared" si="22"/>
         <v>42917</v>
@@ -12604,7 +12603,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="23">
         <f t="shared" si="22"/>
         <v>42948</v>
@@ -12625,7 +12624,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23">
         <f t="shared" si="22"/>
         <v>42979</v>
@@ -12646,7 +12645,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23">
         <f t="shared" si="22"/>
         <v>43009</v>
@@ -12667,7 +12666,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23">
         <f t="shared" si="22"/>
         <v>43040</v>
@@ -12688,7 +12687,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23">
         <f t="shared" si="22"/>
         <v>43070</v>
@@ -12715,7 +12714,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="23"/>
       <c r="B519" s="20" t="s">
         <v>69</v>
@@ -12735,7 +12734,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="48" t="s">
         <v>43</v>
       </c>
@@ -12757,7 +12756,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>43101</v>
       </c>
@@ -12777,7 +12776,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43132</v>
       </c>
@@ -12803,7 +12802,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>43160</v>
       </c>
@@ -12829,7 +12828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43191</v>
       </c>
@@ -12853,7 +12852,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43221</v>
       </c>
@@ -12873,7 +12872,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>43252</v>
       </c>
@@ -12899,7 +12898,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>44</v>
@@ -12921,7 +12920,7 @@
         <v>43279</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>47</v>
@@ -12943,7 +12942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>43282</v>
       </c>
@@ -12969,7 +12968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>43313</v>
       </c>
@@ -12989,7 +12988,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43344</v>
       </c>
@@ -13015,7 +13014,7 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>43374</v>
       </c>
@@ -13041,7 +13040,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>43405</v>
       </c>
@@ -13061,7 +13060,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>43435</v>
       </c>
@@ -13081,7 +13080,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="48" t="s">
         <v>51</v>
       </c>
@@ -13099,7 +13098,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>43466</v>
       </c>
@@ -13123,7 +13122,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>43497</v>
       </c>
@@ -13147,7 +13146,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>43525</v>
       </c>
@@ -13171,7 +13170,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>55</v>
@@ -13188,7 +13187,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>43556</v>
       </c>
@@ -13214,7 +13213,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>47</v>
@@ -13233,7 +13232,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>58</v>
@@ -13250,7 +13249,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>43586</v>
       </c>
@@ -13276,7 +13275,7 @@
         <v>43622</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>43617</v>
       </c>
@@ -13300,7 +13299,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>43647</v>
       </c>
@@ -13320,7 +13319,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>43678</v>
       </c>
@@ -13344,7 +13343,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>43709</v>
       </c>
@@ -13368,7 +13367,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>43739</v>
       </c>
@@ -13394,7 +13393,7 @@
         <v>43741</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="40" t="s">
         <v>62</v>
@@ -13411,7 +13410,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>43770</v>
       </c>
@@ -13431,7 +13430,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>43800</v>
       </c>
@@ -13455,7 +13454,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="48" t="s">
         <v>64</v>
       </c>
@@ -13473,7 +13472,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>43831</v>
       </c>
@@ -13493,7 +13492,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>43862</v>
       </c>
@@ -13513,7 +13512,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>43891</v>
       </c>
@@ -13539,7 +13538,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>43922</v>
       </c>
@@ -13559,7 +13558,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>43952</v>
       </c>
@@ -13579,7 +13578,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>43983</v>
       </c>
@@ -13599,7 +13598,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>44013</v>
       </c>
@@ -13619,7 +13618,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44044</v>
       </c>
@@ -13639,7 +13638,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>44075</v>
       </c>
@@ -13659,7 +13658,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>44105</v>
       </c>
@@ -13679,7 +13678,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>44136</v>
       </c>
@@ -13699,7 +13698,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>44166</v>
       </c>
@@ -13723,7 +13722,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="48" t="s">
         <v>68</v>
       </c>
@@ -13741,7 +13740,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>44197</v>
       </c>
@@ -13761,7 +13760,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>44228</v>
       </c>
@@ -13781,7 +13780,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>44256</v>
       </c>
@@ -13801,7 +13800,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>44287</v>
       </c>
@@ -13821,7 +13820,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>44317</v>
       </c>
@@ -13841,7 +13840,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>44348</v>
       </c>
@@ -13861,7 +13860,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>44378</v>
       </c>
@@ -13881,7 +13880,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>44409</v>
       </c>
@@ -13901,7 +13900,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>44440</v>
       </c>
@@ -13921,7 +13920,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>44470</v>
       </c>
@@ -13941,7 +13940,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>44501</v>
       </c>
@@ -13961,7 +13960,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>44531</v>
       </c>
@@ -13985,7 +13984,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="48" t="s">
         <v>70</v>
       </c>
@@ -14003,7 +14002,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>44562</v>
       </c>
@@ -14023,7 +14022,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>44593</v>
       </c>
@@ -14043,7 +14042,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>44621</v>
       </c>
@@ -14063,7 +14062,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>44652</v>
       </c>
@@ -14083,7 +14082,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>44682</v>
       </c>
@@ -14109,7 +14108,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>44713</v>
       </c>
@@ -14129,7 +14128,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>44743</v>
       </c>
@@ -14155,7 +14154,7 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>44774</v>
       </c>
@@ -14181,7 +14180,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>44805</v>
       </c>
@@ -14207,7 +14206,7 @@
         <v>44813</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>71</v>
@@ -14229,7 +14228,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>65</v>
@@ -14251,7 +14250,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>44835</v>
       </c>
@@ -14271,7 +14270,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <f>EDATE(A590,1)</f>
         <v>44866</v>
@@ -14298,7 +14297,7 @@
         <v>44879</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <f>EDATE(A591,1)</f>
         <v>44896</v>
@@ -14325,7 +14324,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="48" t="s">
         <v>77</v>
       </c>
@@ -14343,7 +14342,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>44927</v>
       </c>
@@ -14369,7 +14368,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>44958</v>
       </c>
@@ -14395,7 +14394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>44986</v>
       </c>
@@ -14421,7 +14420,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>45017</v>
       </c>
@@ -14441,7 +14440,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>45047</v>
       </c>
@@ -14467,7 +14466,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>45078</v>
       </c>
@@ -14493,29 +14492,37 @@
         <v>243</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>45108</v>
       </c>
-      <c r="B600" s="20"/>
-      <c r="C600" s="13"/>
+      <c r="B600" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C600" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D600" s="39"/>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
-      <c r="G600" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H600" s="39"/>
+      <c r="G600" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H600" s="39">
+        <v>1</v>
+      </c>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
-      <c r="K600" s="20"/>
-    </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A601" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B601" s="20"/>
+      <c r="K600" s="49">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601" s="40"/>
+      <c r="B601" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C601" s="13"/>
       <c r="D601" s="39"/>
       <c r="E601" s="9"/>
@@ -14524,14 +14531,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H601" s="39"/>
+      <c r="H601" s="39">
+        <v>1</v>
+      </c>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="20"/>
-    </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K601" s="49">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -14547,9 +14558,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -14565,9 +14576,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -14583,9 +14594,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -14601,9 +14612,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -14619,9 +14630,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -14637,9 +14648,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -14655,9 +14666,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -14673,9 +14684,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -14691,9 +14702,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -14709,9 +14720,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -14727,9 +14738,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -14745,9 +14756,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -14763,9 +14774,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -14781,9 +14792,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -14799,9 +14810,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -14817,9 +14828,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -14835,9 +14846,9 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -14853,9 +14864,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -14871,9 +14882,9 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -14889,9 +14900,9 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -14907,9 +14918,9 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -14925,9 +14936,9 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -14943,9 +14954,9 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -14961,9 +14972,9 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -14979,9 +14990,9 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -14997,9 +15008,9 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15015,9 +15026,9 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15033,9 +15044,9 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15051,9 +15062,9 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15069,9 +15080,9 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15087,9 +15098,9 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15105,9 +15116,9 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -15123,9 +15134,9 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -15141,9 +15152,9 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -15159,8 +15170,10 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A637" s="40"/>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" s="40">
+        <v>46204</v>
+      </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
       <c r="D637" s="39"/>
@@ -15175,7 +15188,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -15191,7 +15204,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -15207,7 +15220,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -15223,7 +15236,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -15239,7 +15252,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -15255,7 +15268,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -15271,7 +15284,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -15287,7 +15300,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -15303,7 +15316,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -15319,7 +15332,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -15335,21 +15348,37 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A648" s="41"/>
-      <c r="B648" s="15"/>
-      <c r="C648" s="42"/>
-      <c r="D648" s="43"/>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A648" s="40"/>
+      <c r="B648" s="20"/>
+      <c r="C648" s="13"/>
+      <c r="D648" s="39"/>
       <c r="E648" s="9"/>
-      <c r="F648" s="15"/>
-      <c r="G648" s="42" t="str">
+      <c r="F648" s="20"/>
+      <c r="G648" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H648" s="43"/>
+      <c r="H648" s="39"/>
       <c r="I648" s="9"/>
-      <c r="J648" s="12"/>
-      <c r="K648" s="15"/>
+      <c r="J648" s="11"/>
+      <c r="K648" s="20"/>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A649" s="41"/>
+      <c r="B649" s="15"/>
+      <c r="C649" s="42"/>
+      <c r="D649" s="43"/>
+      <c r="E649" s="9"/>
+      <c r="F649" s="15"/>
+      <c r="G649" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H649" s="43"/>
+      <c r="I649" s="9"/>
+      <c r="J649" s="12"/>
+      <c r="K649" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15366,10 +15395,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15392,28 +15421,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -15426,7 +15455,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15455,7 +15484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -15481,17 +15510,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15512,7 +15541,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15539,7 +15568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15565,7 +15594,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15591,7 +15620,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15617,7 +15646,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15643,7 +15672,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15669,7 +15698,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15695,7 +15724,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15721,7 +15750,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15741,7 +15770,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15761,7 +15790,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15781,7 +15810,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15802,7 +15831,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15823,7 +15852,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15844,7 +15873,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15865,7 +15894,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15886,7 +15915,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15907,7 +15936,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15928,7 +15957,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15949,7 +15978,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15970,7 +15999,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15991,7 +16020,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16012,7 +16041,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16033,7 +16062,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16054,7 +16083,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16075,7 +16104,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16096,7 +16125,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16117,7 +16146,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16138,7 +16167,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16159,7 +16188,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16180,7 +16209,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16201,7 +16230,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16210,7 +16239,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16219,7 +16248,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16228,7 +16257,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16237,7 +16266,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16246,7 +16275,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16255,7 +16284,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16264,7 +16293,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16273,7 +16302,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16282,7 +16311,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16291,7 +16320,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16300,7 +16329,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16309,7 +16338,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16318,7 +16347,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16327,7 +16356,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16336,7 +16365,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16345,7 +16374,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16354,7 +16383,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16363,7 +16392,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16372,7 +16401,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16381,7 +16410,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16390,7 +16419,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16399,7 +16428,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16408,7 +16437,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16417,7 +16446,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16426,7 +16455,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16435,7 +16464,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16444,7 +16473,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16453,7 +16482,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16462,7 +16491,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
